--- a/data/graph-data/tabella_semplice.xlsx
+++ b/data/graph-data/tabella_semplice.xlsx
@@ -523,7 +523,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>76209</v>
+        <v>76124</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>75687</v>
+        <v>75634</v>
       </c>
       <c r="G2">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="H2">
         <v>1324</v>
@@ -555,13 +555,13 @@
         <v>1285256</v>
       </c>
       <c r="K2">
-        <v>6612</v>
+        <v>8260</v>
       </c>
       <c r="L2">
-        <v>705772</v>
+        <v>699160</v>
       </c>
       <c r="M2">
-        <v>40.61</v>
+        <v>38.12</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>3213.14</v>
       </c>
       <c r="S2">
-        <v>35289</v>
+        <v>34958</v>
       </c>
       <c r="T2">
-        <v>614773</v>
+        <v>621054</v>
       </c>
       <c r="U2">
-        <v>307.39</v>
+        <v>310.53</v>
       </c>
       <c r="V2">
-        <v>922.16</v>
+        <v>931.58</v>
       </c>
       <c r="W2">
-        <v>1536.93</v>
+        <v>1552.63</v>
       </c>
       <c r="X2">
         <v>24</v>
@@ -600,27 +600,27 @@
         <v>72</v>
       </c>
       <c r="Z2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA2">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="AB2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AD2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AE2">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>27400</v>
+        <v>27339</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>27214</v>
+        <v>27187</v>
       </c>
       <c r="G3">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="H3">
         <v>342</v>
@@ -652,19 +652,19 @@
         <v>547579</v>
       </c>
       <c r="K3">
-        <v>3053</v>
+        <v>2861</v>
       </c>
       <c r="L3">
-        <v>270370</v>
+        <v>267317</v>
       </c>
       <c r="M3">
-        <v>33.97</v>
+        <v>27.76</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P3">
         <v>273.79</v>
@@ -676,19 +676,19 @@
         <v>1368.95</v>
       </c>
       <c r="S3">
-        <v>13519</v>
+        <v>13366</v>
       </c>
       <c r="T3">
-        <v>290728</v>
+        <v>293628</v>
       </c>
       <c r="U3">
-        <v>145.36</v>
+        <v>146.81</v>
       </c>
       <c r="V3">
-        <v>436.09</v>
+        <v>440.44</v>
       </c>
       <c r="W3">
-        <v>726.8200000000001</v>
+        <v>734.0700000000001</v>
       </c>
       <c r="X3">
         <v>27</v>
@@ -697,27 +697,27 @@
         <v>80</v>
       </c>
       <c r="Z3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA3">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="AB3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC3">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AD3">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AE3">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>70955</v>
+        <v>70833</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>70106</v>
+        <v>69970</v>
       </c>
       <c r="G4">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="H4">
         <v>821</v>
@@ -749,13 +749,13 @@
         <v>1877728</v>
       </c>
       <c r="K4">
-        <v>7802</v>
+        <v>14272</v>
       </c>
       <c r="L4">
-        <v>939993</v>
+        <v>932191</v>
       </c>
       <c r="M4">
-        <v>45.21</v>
+        <v>45.96</v>
       </c>
       <c r="N4">
         <v>0.04</v>
@@ -773,19 +773,19 @@
         <v>4694.32</v>
       </c>
       <c r="S4">
-        <v>47000</v>
+        <v>46610</v>
       </c>
       <c r="T4">
-        <v>984735</v>
+        <v>992147</v>
       </c>
       <c r="U4">
-        <v>492.37</v>
+        <v>496.07</v>
       </c>
       <c r="V4">
-        <v>1477.1</v>
+        <v>1488.22</v>
       </c>
       <c r="W4">
-        <v>2461.84</v>
+        <v>2480.37</v>
       </c>
       <c r="X4">
         <v>26</v>
@@ -794,19 +794,19 @@
         <v>79</v>
       </c>
       <c r="Z4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA4">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="AB4">
         <v>95</v>
       </c>
       <c r="AC4">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AD4">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AE4">
         <v>0.48</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -822,19 +822,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>431063</v>
+        <v>430592</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F5">
-        <v>428860</v>
+        <v>428519</v>
       </c>
       <c r="G5">
-        <v>2203</v>
+        <v>2073</v>
       </c>
       <c r="H5">
         <v>3832</v>
@@ -846,13 +846,13 @@
         <v>5679759</v>
       </c>
       <c r="K5">
-        <v>17926</v>
+        <v>30283</v>
       </c>
       <c r="L5">
-        <v>3211652</v>
+        <v>3193726</v>
       </c>
       <c r="M5">
-        <v>38.79</v>
+        <v>36.5</v>
       </c>
       <c r="N5">
         <v>0.02</v>
@@ -870,48 +870,48 @@
         <v>14199.4</v>
       </c>
       <c r="S5">
-        <v>160583</v>
+        <v>159686</v>
       </c>
       <c r="T5">
-        <v>2628690</v>
+        <v>2645719</v>
       </c>
       <c r="U5">
-        <v>1314.35</v>
+        <v>1322.86</v>
       </c>
       <c r="V5">
-        <v>3943.03</v>
+        <v>3968.58</v>
       </c>
       <c r="W5">
-        <v>6571.72</v>
+        <v>6614.3</v>
       </c>
       <c r="X5">
         <v>23</v>
       </c>
       <c r="Y5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z5">
         <v>116</v>
       </c>
       <c r="AA5">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="AB5">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC5">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AD5">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AE5">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -919,19 +919,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>394328</v>
+        <v>393632</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F6">
-        <v>390857</v>
+        <v>390389</v>
       </c>
       <c r="G6">
-        <v>3471</v>
+        <v>3243</v>
       </c>
       <c r="H6">
         <v>6538</v>
@@ -943,13 +943,13 @@
         <v>4445549</v>
       </c>
       <c r="K6">
-        <v>17607</v>
+        <v>24146</v>
       </c>
       <c r="L6">
-        <v>2363650</v>
+        <v>2346043</v>
       </c>
       <c r="M6">
-        <v>78.08</v>
+        <v>72.95</v>
       </c>
       <c r="N6">
         <v>0.02</v>
@@ -967,48 +967,48 @@
         <v>11113.87</v>
       </c>
       <c r="S6">
-        <v>118183</v>
+        <v>117302</v>
       </c>
       <c r="T6">
-        <v>2200082</v>
+        <v>2216808</v>
       </c>
       <c r="U6">
-        <v>1100.04</v>
+        <v>1108.4</v>
       </c>
       <c r="V6">
-        <v>3300.12</v>
+        <v>3325.21</v>
       </c>
       <c r="W6">
-        <v>5500.2</v>
+        <v>5542.02</v>
       </c>
       <c r="X6">
         <v>25</v>
       </c>
       <c r="Y6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA6">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AB6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC6">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AD6">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AE6">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1016,19 +1016,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>108035</v>
+        <v>107947</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>107533</v>
+        <v>107467</v>
       </c>
       <c r="G7">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="H7">
         <v>1277</v>
@@ -1040,16 +1040,16 @@
         <v>1198753</v>
       </c>
       <c r="K7">
-        <v>3612</v>
+        <v>5978</v>
       </c>
       <c r="L7">
-        <v>653696</v>
+        <v>650084</v>
       </c>
       <c r="M7">
-        <v>41.88</v>
+        <v>40.04</v>
       </c>
       <c r="N7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O7">
         <v>0.01</v>
@@ -1064,48 +1064,48 @@
         <v>2996.88</v>
       </c>
       <c r="S7">
-        <v>32685</v>
+        <v>32504</v>
       </c>
       <c r="T7">
-        <v>577742</v>
+        <v>581173</v>
       </c>
       <c r="U7">
-        <v>288.87</v>
+        <v>290.59</v>
       </c>
       <c r="V7">
-        <v>866.61</v>
+        <v>871.76</v>
       </c>
       <c r="W7">
-        <v>1444.36</v>
+        <v>1452.93</v>
       </c>
       <c r="X7">
         <v>24</v>
       </c>
       <c r="Y7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA7">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="AB7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC7">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AD7">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AE7">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1113,19 +1113,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>358528</v>
+        <v>357786</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F8">
-        <v>353636</v>
+        <v>352791</v>
       </c>
       <c r="G8">
-        <v>4892</v>
+        <v>4995</v>
       </c>
       <c r="H8">
         <v>6421</v>
@@ -1137,19 +1137,19 @@
         <v>5720796</v>
       </c>
       <c r="K8">
-        <v>41029</v>
+        <v>50423</v>
       </c>
       <c r="L8">
-        <v>3384561</v>
+        <v>3343532</v>
       </c>
       <c r="M8">
-        <v>85.51000000000001</v>
+        <v>87.31</v>
       </c>
       <c r="N8">
         <v>0.05</v>
       </c>
       <c r="O8">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P8">
         <v>2860.4</v>
@@ -1161,48 +1161,48 @@
         <v>14301.99</v>
       </c>
       <c r="S8">
-        <v>169228</v>
+        <v>167177</v>
       </c>
       <c r="T8">
-        <v>2505463</v>
+        <v>2544441</v>
       </c>
       <c r="U8">
-        <v>1252.73</v>
+        <v>1272.22</v>
       </c>
       <c r="V8">
-        <v>3758.19</v>
+        <v>3816.66</v>
       </c>
       <c r="W8">
-        <v>6263.66</v>
+        <v>6361.1</v>
       </c>
       <c r="X8">
         <v>22</v>
       </c>
       <c r="Y8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA8">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AB8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AC8">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AD8">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="AE8">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1210,19 +1210,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>105328</v>
+        <v>105172</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>104497</v>
+        <v>104357</v>
       </c>
       <c r="G9">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="H9">
         <v>1670</v>
@@ -1234,13 +1234,13 @@
         <v>1509805</v>
       </c>
       <c r="K9">
-        <v>5589</v>
+        <v>11332</v>
       </c>
       <c r="L9">
-        <v>782626</v>
+        <v>777037</v>
       </c>
       <c r="M9">
-        <v>55.04</v>
+        <v>53.98</v>
       </c>
       <c r="N9">
         <v>0.04</v>
@@ -1258,48 +1258,48 @@
         <v>3774.51</v>
       </c>
       <c r="S9">
-        <v>39131</v>
+        <v>38852</v>
       </c>
       <c r="T9">
-        <v>766310</v>
+        <v>771620</v>
       </c>
       <c r="U9">
-        <v>383.15</v>
+        <v>385.81</v>
       </c>
       <c r="V9">
-        <v>1149.46</v>
+        <v>1157.43</v>
       </c>
       <c r="W9">
-        <v>1915.78</v>
+        <v>1929.05</v>
       </c>
       <c r="X9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA9">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="AB9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC9">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AD9">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AE9">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1307,19 +1307,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>852970</v>
+        <v>852193</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F10">
-        <v>848855</v>
+        <v>848281</v>
       </c>
       <c r="G10">
-        <v>4115</v>
+        <v>3912</v>
       </c>
       <c r="H10">
         <v>6369</v>
@@ -1331,13 +1331,13 @@
         <v>9966992</v>
       </c>
       <c r="K10">
-        <v>30340</v>
+        <v>39373</v>
       </c>
       <c r="L10">
-        <v>5716457</v>
+        <v>5686117</v>
       </c>
       <c r="M10">
-        <v>41.29</v>
+        <v>39.25</v>
       </c>
       <c r="N10">
         <v>0.02</v>
@@ -1355,48 +1355,48 @@
         <v>24917.48</v>
       </c>
       <c r="S10">
-        <v>285823</v>
+        <v>284306</v>
       </c>
       <c r="T10">
-        <v>4536358</v>
+        <v>4565181</v>
       </c>
       <c r="U10">
-        <v>2268.18</v>
+        <v>2282.59</v>
       </c>
       <c r="V10">
-        <v>6804.54</v>
+        <v>6847.77</v>
       </c>
       <c r="W10">
-        <v>11340.9</v>
+        <v>11412.95</v>
       </c>
       <c r="X10">
         <v>23</v>
       </c>
       <c r="Y10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA10">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AB10">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC10">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AD10">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AE10">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>105562</v>
+        <v>105397</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>104774</v>
+        <v>104669</v>
       </c>
       <c r="G11">
-        <v>788</v>
+        <v>728</v>
       </c>
       <c r="H11">
         <v>951</v>
@@ -1428,13 +1428,13 @@
         <v>1501406</v>
       </c>
       <c r="K11">
-        <v>6631</v>
+        <v>9961</v>
       </c>
       <c r="L11">
-        <v>832464</v>
+        <v>825833</v>
       </c>
       <c r="M11">
-        <v>52.48</v>
+        <v>48.49</v>
       </c>
       <c r="N11">
         <v>0.02</v>
@@ -1443,7 +1443,7 @@
         <v>0.02</v>
       </c>
       <c r="P11">
-        <v>750.7000000000001</v>
+        <v>750.7</v>
       </c>
       <c r="Q11">
         <v>2252.11</v>
@@ -1452,48 +1452,48 @@
         <v>3753.52</v>
       </c>
       <c r="S11">
-        <v>41623</v>
+        <v>41292</v>
       </c>
       <c r="T11">
-        <v>710565</v>
+        <v>716865</v>
       </c>
       <c r="U11">
-        <v>355.28</v>
+        <v>358.43</v>
       </c>
       <c r="V11">
-        <v>1065.85</v>
+        <v>1075.3</v>
       </c>
       <c r="W11">
-        <v>1776.41</v>
+        <v>1792.16</v>
       </c>
       <c r="X11">
         <v>24</v>
       </c>
       <c r="Y11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA11">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="AB11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AD11">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AE11">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>13916</v>
+        <v>13911</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>13862</v>
+        <v>13858</v>
       </c>
       <c r="G12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>176</v>
@@ -1525,13 +1525,13 @@
         <v>296547</v>
       </c>
       <c r="K12">
-        <v>1144</v>
+        <v>1042</v>
       </c>
       <c r="L12">
-        <v>165924</v>
+        <v>164780</v>
       </c>
       <c r="M12">
-        <v>18.21</v>
+        <v>17.87</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1549,40 +1549,40 @@
         <v>741.37</v>
       </c>
       <c r="S12">
-        <v>8296</v>
+        <v>8239</v>
       </c>
       <c r="T12">
-        <v>138919</v>
+        <v>140006</v>
       </c>
       <c r="U12">
-        <v>69.45999999999999</v>
+        <v>70</v>
       </c>
       <c r="V12">
-        <v>208.38</v>
+        <v>210.01</v>
       </c>
       <c r="W12">
-        <v>347.3</v>
+        <v>350.02</v>
       </c>
       <c r="X12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y12">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA12">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AB12">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC12">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AD12">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AE12">
         <v>0.17</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1598,19 +1598,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>73797</v>
+        <v>73775</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>73626</v>
+        <v>73614</v>
       </c>
       <c r="G13">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H13">
         <v>391</v>
@@ -1622,19 +1622,19 @@
         <v>533715</v>
       </c>
       <c r="K13">
-        <v>799</v>
+        <v>1345</v>
       </c>
       <c r="L13">
-        <v>266685</v>
+        <v>265886</v>
       </c>
       <c r="M13">
-        <v>32.04</v>
+        <v>30.17</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0.03</v>
-      </c>
-      <c r="O13">
-        <v>0.01</v>
       </c>
       <c r="P13">
         <v>266.86</v>
@@ -1646,19 +1646,19 @@
         <v>1334.29</v>
       </c>
       <c r="S13">
-        <v>13334</v>
+        <v>13294</v>
       </c>
       <c r="T13">
-        <v>280364</v>
+        <v>281123</v>
       </c>
       <c r="U13">
-        <v>140.18</v>
+        <v>140.56</v>
       </c>
       <c r="V13">
-        <v>420.55</v>
+        <v>421.68</v>
       </c>
       <c r="W13">
-        <v>700.91</v>
+        <v>702.8099999999999</v>
       </c>
       <c r="X13">
         <v>26</v>
@@ -1667,7 +1667,7 @@
         <v>79</v>
       </c>
       <c r="Z13">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA13">
         <v>1.9</v>
@@ -1676,18 +1676,18 @@
         <v>95</v>
       </c>
       <c r="AC13">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD13">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AE13">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1695,19 +1695,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>46395</v>
+        <v>46361</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>46173</v>
+        <v>46134</v>
       </c>
       <c r="G14">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H14">
         <v>517</v>
@@ -1719,19 +1719,19 @@
         <v>544745</v>
       </c>
       <c r="K14">
-        <v>336</v>
+        <v>3043</v>
       </c>
       <c r="L14">
-        <v>259950</v>
+        <v>259614</v>
       </c>
       <c r="M14">
-        <v>40.75</v>
+        <v>41.67</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P14">
         <v>272.37</v>
@@ -1743,19 +1743,19 @@
         <v>1361.86</v>
       </c>
       <c r="S14">
-        <v>12998</v>
+        <v>12981</v>
       </c>
       <c r="T14">
-        <v>297793</v>
+        <v>298112</v>
       </c>
       <c r="U14">
-        <v>148.9</v>
+        <v>149.06</v>
       </c>
       <c r="V14">
-        <v>446.69</v>
+        <v>447.17</v>
       </c>
       <c r="W14">
-        <v>744.48</v>
+        <v>745.28</v>
       </c>
       <c r="X14">
         <v>27</v>
@@ -1779,12 +1779,12 @@
         <v>457</v>
       </c>
       <c r="AE14">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1792,19 +1792,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>365827</v>
+        <v>365598</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>364499</v>
+        <v>364338</v>
       </c>
       <c r="G15">
-        <v>1328</v>
+        <v>1260</v>
       </c>
       <c r="H15">
         <v>5824</v>
@@ -1816,13 +1816,13 @@
         <v>4273210</v>
       </c>
       <c r="K15">
-        <v>22318</v>
+        <v>24850</v>
       </c>
       <c r="L15">
-        <v>2293834</v>
+        <v>2271516</v>
       </c>
       <c r="M15">
-        <v>31.08</v>
+        <v>29.49</v>
       </c>
       <c r="N15">
         <v>0.01</v>
@@ -1840,19 +1840,19 @@
         <v>10683.03</v>
       </c>
       <c r="S15">
-        <v>114692</v>
+        <v>113576</v>
       </c>
       <c r="T15">
-        <v>2094068</v>
+        <v>2115270</v>
       </c>
       <c r="U15">
-        <v>1047.03</v>
+        <v>1057.63</v>
       </c>
       <c r="V15">
-        <v>3141.1</v>
+        <v>3172.9</v>
       </c>
       <c r="W15">
-        <v>5235.17</v>
+        <v>5288.18</v>
       </c>
       <c r="X15">
         <v>25</v>
@@ -1861,27 +1861,27 @@
         <v>74</v>
       </c>
       <c r="Z15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA15">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AB15">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC15">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AD15">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AE15">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1889,19 +1889,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>256031</v>
+        <v>255799</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>254885</v>
+        <v>254747</v>
       </c>
       <c r="G16">
-        <v>1146</v>
+        <v>1052</v>
       </c>
       <c r="H16">
         <v>2799</v>
@@ -1913,13 +1913,13 @@
         <v>3926931</v>
       </c>
       <c r="K16">
-        <v>8571</v>
+        <v>20951</v>
       </c>
       <c r="L16">
-        <v>2236741</v>
+        <v>2228170</v>
       </c>
       <c r="M16">
-        <v>29.18</v>
+        <v>26.79</v>
       </c>
       <c r="N16">
         <v>0.02</v>
@@ -1937,19 +1937,19 @@
         <v>9817.33</v>
       </c>
       <c r="S16">
-        <v>111837</v>
+        <v>111409</v>
       </c>
       <c r="T16">
-        <v>1802027</v>
+        <v>1810170</v>
       </c>
       <c r="U16">
-        <v>901.01</v>
+        <v>905.08</v>
       </c>
       <c r="V16">
-        <v>2703.04</v>
+        <v>2715.26</v>
       </c>
       <c r="W16">
-        <v>4505.07</v>
+        <v>4525.42</v>
       </c>
       <c r="X16">
         <v>23</v>
@@ -1961,24 +1961,24 @@
         <v>115</v>
       </c>
       <c r="AA16">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="AB16">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC16">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD16">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AE16">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1986,19 +1986,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>62051</v>
+        <v>61721</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>59782</v>
+        <v>59497</v>
       </c>
       <c r="G17">
-        <v>2269</v>
+        <v>2224</v>
       </c>
       <c r="H17">
         <v>1602</v>
@@ -2010,19 +2010,19 @@
         <v>1598225</v>
       </c>
       <c r="K17">
-        <v>4246</v>
+        <v>8711</v>
       </c>
       <c r="L17">
-        <v>854072</v>
+        <v>849826</v>
       </c>
       <c r="M17">
-        <v>141.97</v>
+        <v>139.15</v>
       </c>
       <c r="N17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P17">
         <v>799.11</v>
@@ -2034,19 +2034,19 @@
         <v>3995.56</v>
       </c>
       <c r="S17">
-        <v>42704</v>
+        <v>42491</v>
       </c>
       <c r="T17">
-        <v>786857</v>
+        <v>790890</v>
       </c>
       <c r="U17">
-        <v>393.43</v>
+        <v>395.44</v>
       </c>
       <c r="V17">
-        <v>1180.29</v>
+        <v>1186.34</v>
       </c>
       <c r="W17">
-        <v>1967.14</v>
+        <v>1977.22</v>
       </c>
       <c r="X17">
         <v>25</v>
@@ -2055,27 +2055,27 @@
         <v>74</v>
       </c>
       <c r="Z17">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA17">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="AB17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC17">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AD17">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AE17">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2083,19 +2083,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>242960</v>
+        <v>242059</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F18">
-        <v>238528</v>
+        <v>237902</v>
       </c>
       <c r="G18">
-        <v>4432</v>
+        <v>4157</v>
       </c>
       <c r="H18">
         <v>2918</v>
@@ -2107,13 +2107,13 @@
         <v>4840876</v>
       </c>
       <c r="K18">
-        <v>15362</v>
+        <v>20423</v>
       </c>
       <c r="L18">
-        <v>2413146</v>
+        <v>2397784</v>
       </c>
       <c r="M18">
-        <v>91.55</v>
+        <v>85.87</v>
       </c>
       <c r="N18">
         <v>0.05</v>
@@ -2131,19 +2131,19 @@
         <v>12102.19</v>
       </c>
       <c r="S18">
-        <v>120657</v>
+        <v>119889</v>
       </c>
       <c r="T18">
-        <v>2548387</v>
+        <v>2562981</v>
       </c>
       <c r="U18">
-        <v>1274.19</v>
+        <v>1281.49</v>
       </c>
       <c r="V18">
-        <v>3822.58</v>
+        <v>3844.47</v>
       </c>
       <c r="W18">
-        <v>6370.97</v>
+        <v>6407.45</v>
       </c>
       <c r="X18">
         <v>26</v>
@@ -2155,24 +2155,24 @@
         <v>132</v>
       </c>
       <c r="AA18">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AB18">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC18">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AD18">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AE18">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2180,19 +2180,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>251973</v>
+        <v>251332</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>248058</v>
+        <v>247617</v>
       </c>
       <c r="G19">
-        <v>3915</v>
+        <v>3715</v>
       </c>
       <c r="H19">
         <v>5033</v>
@@ -2204,16 +2204,16 @@
         <v>3668333</v>
       </c>
       <c r="K19">
-        <v>17272</v>
+        <v>27543</v>
       </c>
       <c r="L19">
-        <v>1846075</v>
+        <v>1828803</v>
       </c>
       <c r="M19">
-        <v>106.72</v>
+        <v>101.27</v>
       </c>
       <c r="N19">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O19">
         <v>0.03</v>
@@ -2228,48 +2228,48 @@
         <v>9170.83</v>
       </c>
       <c r="S19">
-        <v>92304</v>
+        <v>91440</v>
       </c>
       <c r="T19">
-        <v>1914562</v>
+        <v>1930970</v>
       </c>
       <c r="U19">
-        <v>957.28</v>
+        <v>965.48</v>
       </c>
       <c r="V19">
-        <v>2871.84</v>
+        <v>2896.46</v>
       </c>
       <c r="W19">
-        <v>4786.41</v>
+        <v>4827.42</v>
       </c>
       <c r="X19">
         <v>26</v>
       </c>
       <c r="Y19">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA19">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AB19">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC19">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AD19">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AE19">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2277,19 +2277,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>58352</v>
+        <v>58233</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>57594</v>
+        <v>57499</v>
       </c>
       <c r="G20">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="H20">
         <v>671</v>
@@ -2301,19 +2301,19 @@
         <v>865013</v>
       </c>
       <c r="K20">
-        <v>2801</v>
+        <v>2907</v>
       </c>
       <c r="L20">
-        <v>464034</v>
+        <v>461233</v>
       </c>
       <c r="M20">
-        <v>87.63</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="N20">
         <v>0.02</v>
       </c>
       <c r="O20">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P20">
         <v>432.51</v>
@@ -2325,19 +2325,19 @@
         <v>2162.53</v>
       </c>
       <c r="S20">
-        <v>23202</v>
+        <v>23062</v>
       </c>
       <c r="T20">
-        <v>424181</v>
+        <v>426842</v>
       </c>
       <c r="U20">
-        <v>212.09</v>
+        <v>213.42</v>
       </c>
       <c r="V20">
-        <v>636.27</v>
+        <v>640.26</v>
       </c>
       <c r="W20">
-        <v>1060.45</v>
+        <v>1067.11</v>
       </c>
       <c r="X20">
         <v>25</v>
@@ -2349,24 +2349,24 @@
         <v>123</v>
       </c>
       <c r="AA20">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AB20">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC20">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AD20">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AE20">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2374,19 +2374,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>11765</v>
+        <v>11761</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>11738</v>
+        <v>11732</v>
       </c>
       <c r="G21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>67</v>
@@ -2398,19 +2398,19 @@
         <v>123895</v>
       </c>
       <c r="K21">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L21">
-        <v>62383</v>
+        <v>61852</v>
       </c>
       <c r="M21">
-        <v>21.79</v>
+        <v>23.41</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P21">
         <v>61.95</v>
@@ -2422,48 +2422,48 @@
         <v>309.74</v>
       </c>
       <c r="S21">
-        <v>3119</v>
+        <v>3093</v>
       </c>
       <c r="T21">
-        <v>64631</v>
+        <v>65136</v>
       </c>
       <c r="U21">
-        <v>32.32</v>
+        <v>32.57</v>
       </c>
       <c r="V21">
-        <v>96.95</v>
+        <v>97.7</v>
       </c>
       <c r="W21">
-        <v>161.58</v>
+        <v>162.84</v>
       </c>
       <c r="X21">
         <v>26</v>
       </c>
       <c r="Y21">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z21">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA21">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AB21">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC21">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD21">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AE21">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>436583</v>
+        <v>435954</v>
       </c>
       <c r="D22">
         <v>14</v>
       </c>
       <c r="E22">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F22">
-        <v>431909</v>
+        <v>431333</v>
       </c>
       <c r="G22">
-        <v>4674</v>
+        <v>4621</v>
       </c>
       <c r="H22">
         <v>6000</v>
@@ -2495,13 +2495,13 @@
         <v>4852453</v>
       </c>
       <c r="K22">
-        <v>13838</v>
+        <v>23243</v>
       </c>
       <c r="L22">
-        <v>2626596</v>
+        <v>2612758</v>
       </c>
       <c r="M22">
-        <v>96.31999999999999</v>
+        <v>95.23</v>
       </c>
       <c r="N22">
         <v>0.01</v>
@@ -2519,19 +2519,19 @@
         <v>12131.13</v>
       </c>
       <c r="S22">
-        <v>131330</v>
+        <v>130638</v>
       </c>
       <c r="T22">
-        <v>2357187</v>
+        <v>2370333</v>
       </c>
       <c r="U22">
-        <v>1178.59</v>
+        <v>1185.17</v>
       </c>
       <c r="V22">
-        <v>3535.78</v>
+        <v>3555.5</v>
       </c>
       <c r="W22">
-        <v>5892.97</v>
+        <v>5925.83</v>
       </c>
       <c r="X22">
         <v>24</v>
@@ -2540,22 +2540,22 @@
         <v>73</v>
       </c>
       <c r="Z22">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA22">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="AB22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC22">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AD22">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AE22">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>

--- a/data/graph-data/tabella_semplice.xlsx
+++ b/data/graph-data/tabella_semplice.xlsx
@@ -523,7 +523,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>76124</v>
+        <v>76209</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>75634</v>
+        <v>75687</v>
       </c>
       <c r="G2">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="H2">
         <v>1324</v>
@@ -555,13 +555,13 @@
         <v>1285256</v>
       </c>
       <c r="K2">
-        <v>8260</v>
+        <v>8337</v>
       </c>
       <c r="L2">
-        <v>699160</v>
+        <v>707498</v>
       </c>
       <c r="M2">
-        <v>38.12</v>
+        <v>40.61</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>3213.14</v>
       </c>
       <c r="S2">
-        <v>34958</v>
+        <v>35375</v>
       </c>
       <c r="T2">
-        <v>621054</v>
+        <v>613133</v>
       </c>
       <c r="U2">
-        <v>310.53</v>
+        <v>306.57</v>
       </c>
       <c r="V2">
-        <v>931.58</v>
+        <v>919.7</v>
       </c>
       <c r="W2">
-        <v>1552.63</v>
+        <v>1532.83</v>
       </c>
       <c r="X2">
         <v>24</v>
@@ -600,27 +600,27 @@
         <v>72</v>
       </c>
       <c r="Z2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AA2">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AB2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AC2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AD2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AE2">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>27339</v>
+        <v>27400</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>27187</v>
+        <v>27214</v>
       </c>
       <c r="G3">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="H3">
         <v>342</v>
@@ -652,19 +652,19 @@
         <v>547579</v>
       </c>
       <c r="K3">
-        <v>2861</v>
+        <v>3613</v>
       </c>
       <c r="L3">
-        <v>267317</v>
+        <v>270930</v>
       </c>
       <c r="M3">
-        <v>27.76</v>
+        <v>33.97</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P3">
         <v>273.79</v>
@@ -676,48 +676,48 @@
         <v>1368.95</v>
       </c>
       <c r="S3">
-        <v>13366</v>
+        <v>13547</v>
       </c>
       <c r="T3">
-        <v>293628</v>
+        <v>290196</v>
       </c>
       <c r="U3">
-        <v>146.81</v>
+        <v>145.1</v>
       </c>
       <c r="V3">
-        <v>440.44</v>
+        <v>435.29</v>
       </c>
       <c r="W3">
-        <v>734.0700000000001</v>
+        <v>725.49</v>
       </c>
       <c r="X3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z3">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AA3">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AB3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC3">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AD3">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AE3">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>70833</v>
+        <v>70955</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>69970</v>
+        <v>70106</v>
       </c>
       <c r="G4">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="H4">
         <v>821</v>
@@ -749,13 +749,13 @@
         <v>1877728</v>
       </c>
       <c r="K4">
-        <v>14272</v>
+        <v>10190</v>
       </c>
       <c r="L4">
-        <v>932191</v>
+        <v>942398</v>
       </c>
       <c r="M4">
-        <v>45.96</v>
+        <v>45.21</v>
       </c>
       <c r="N4">
         <v>0.04</v>
@@ -773,48 +773,48 @@
         <v>4694.32</v>
       </c>
       <c r="S4">
-        <v>46610</v>
+        <v>47120</v>
       </c>
       <c r="T4">
-        <v>992147</v>
+        <v>982450</v>
       </c>
       <c r="U4">
-        <v>496.07</v>
+        <v>491.22</v>
       </c>
       <c r="V4">
-        <v>1488.22</v>
+        <v>1473.68</v>
       </c>
       <c r="W4">
-        <v>2480.37</v>
+        <v>2456.12</v>
       </c>
       <c r="X4">
         <v>26</v>
       </c>
       <c r="Y4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA4">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AB4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AD4">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AE4">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -822,19 +822,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>430592</v>
+        <v>431063</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F5">
-        <v>428519</v>
+        <v>428860</v>
       </c>
       <c r="G5">
-        <v>2073</v>
+        <v>2203</v>
       </c>
       <c r="H5">
         <v>3832</v>
@@ -846,13 +846,13 @@
         <v>5679759</v>
       </c>
       <c r="K5">
-        <v>30283</v>
+        <v>20181</v>
       </c>
       <c r="L5">
-        <v>3193726</v>
+        <v>3213927</v>
       </c>
       <c r="M5">
-        <v>36.5</v>
+        <v>38.79</v>
       </c>
       <c r="N5">
         <v>0.02</v>
@@ -870,48 +870,48 @@
         <v>14199.4</v>
       </c>
       <c r="S5">
-        <v>159686</v>
+        <v>160696</v>
       </c>
       <c r="T5">
-        <v>2645719</v>
+        <v>2626528</v>
       </c>
       <c r="U5">
-        <v>1322.86</v>
+        <v>1313.26</v>
       </c>
       <c r="V5">
-        <v>3968.58</v>
+        <v>3939.79</v>
       </c>
       <c r="W5">
-        <v>6614.3</v>
+        <v>6566.32</v>
       </c>
       <c r="X5">
         <v>23</v>
       </c>
       <c r="Y5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z5">
         <v>116</v>
       </c>
       <c r="AA5">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="AB5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC5">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AD5">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AE5">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -919,19 +919,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>393632</v>
+        <v>394328</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F6">
-        <v>390389</v>
+        <v>390857</v>
       </c>
       <c r="G6">
-        <v>3243</v>
+        <v>3471</v>
       </c>
       <c r="H6">
         <v>6538</v>
@@ -943,13 +943,13 @@
         <v>4445549</v>
       </c>
       <c r="K6">
-        <v>24146</v>
+        <v>24068</v>
       </c>
       <c r="L6">
-        <v>2346043</v>
+        <v>2370157</v>
       </c>
       <c r="M6">
-        <v>72.95</v>
+        <v>78.08</v>
       </c>
       <c r="N6">
         <v>0.02</v>
@@ -967,48 +967,48 @@
         <v>11113.87</v>
       </c>
       <c r="S6">
-        <v>117302</v>
+        <v>118508</v>
       </c>
       <c r="T6">
-        <v>2216808</v>
+        <v>2193900</v>
       </c>
       <c r="U6">
-        <v>1108.4</v>
+        <v>1096.95</v>
       </c>
       <c r="V6">
-        <v>3325.21</v>
+        <v>3290.85</v>
       </c>
       <c r="W6">
-        <v>5542.02</v>
+        <v>5484.75</v>
       </c>
       <c r="X6">
         <v>25</v>
       </c>
       <c r="Y6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA6">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AB6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC6">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AD6">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AE6">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1016,19 +1016,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>107947</v>
+        <v>108035</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>107467</v>
+        <v>107533</v>
       </c>
       <c r="G7">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="H7">
         <v>1277</v>
@@ -1040,16 +1040,16 @@
         <v>1198753</v>
       </c>
       <c r="K7">
-        <v>5978</v>
+        <v>6022</v>
       </c>
       <c r="L7">
-        <v>650084</v>
+        <v>656117</v>
       </c>
       <c r="M7">
-        <v>40.04</v>
+        <v>41.88</v>
       </c>
       <c r="N7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O7">
         <v>0.01</v>
@@ -1064,48 +1064,48 @@
         <v>2996.88</v>
       </c>
       <c r="S7">
-        <v>32504</v>
+        <v>32806</v>
       </c>
       <c r="T7">
-        <v>581173</v>
+        <v>575442</v>
       </c>
       <c r="U7">
-        <v>290.59</v>
+        <v>287.72</v>
       </c>
       <c r="V7">
-        <v>871.76</v>
+        <v>863.16</v>
       </c>
       <c r="W7">
-        <v>1452.93</v>
+        <v>1438.61</v>
       </c>
       <c r="X7">
         <v>24</v>
       </c>
       <c r="Y7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA7">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AB7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC7">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AD7">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AE7">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1113,19 +1113,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>357786</v>
+        <v>358528</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F8">
-        <v>352791</v>
+        <v>353636</v>
       </c>
       <c r="G8">
-        <v>4995</v>
+        <v>4892</v>
       </c>
       <c r="H8">
         <v>6421</v>
@@ -1137,19 +1137,19 @@
         <v>5720796</v>
       </c>
       <c r="K8">
-        <v>50423</v>
+        <v>51214</v>
       </c>
       <c r="L8">
-        <v>3343532</v>
+        <v>3394809</v>
       </c>
       <c r="M8">
-        <v>87.31</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="N8">
         <v>0.05</v>
       </c>
       <c r="O8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P8">
         <v>2860.4</v>
@@ -1161,48 +1161,48 @@
         <v>14301.99</v>
       </c>
       <c r="S8">
-        <v>167177</v>
+        <v>169740</v>
       </c>
       <c r="T8">
-        <v>2544441</v>
+        <v>2495727</v>
       </c>
       <c r="U8">
-        <v>1272.22</v>
+        <v>1247.86</v>
       </c>
       <c r="V8">
-        <v>3816.66</v>
+        <v>3743.59</v>
       </c>
       <c r="W8">
-        <v>6361.1</v>
+        <v>6239.32</v>
       </c>
       <c r="X8">
         <v>22</v>
       </c>
       <c r="Y8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA8">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AB8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC8">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AD8">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="AE8">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1210,19 +1210,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>105172</v>
+        <v>105328</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>104357</v>
+        <v>104497</v>
       </c>
       <c r="G9">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="H9">
         <v>1670</v>
@@ -1234,13 +1234,13 @@
         <v>1509805</v>
       </c>
       <c r="K9">
-        <v>11332</v>
+        <v>6887</v>
       </c>
       <c r="L9">
-        <v>777037</v>
+        <v>783932</v>
       </c>
       <c r="M9">
-        <v>53.98</v>
+        <v>55.04</v>
       </c>
       <c r="N9">
         <v>0.04</v>
@@ -1258,48 +1258,48 @@
         <v>3774.51</v>
       </c>
       <c r="S9">
-        <v>38852</v>
+        <v>39197</v>
       </c>
       <c r="T9">
-        <v>771620</v>
+        <v>765070</v>
       </c>
       <c r="U9">
-        <v>385.81</v>
+        <v>382.53</v>
       </c>
       <c r="V9">
-        <v>1157.43</v>
+        <v>1147.61</v>
       </c>
       <c r="W9">
-        <v>1929.05</v>
+        <v>1912.67</v>
       </c>
       <c r="X9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA9">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="AB9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC9">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AD9">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AE9">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1307,19 +1307,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>852193</v>
+        <v>852970</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F10">
-        <v>848281</v>
+        <v>848855</v>
       </c>
       <c r="G10">
-        <v>3912</v>
+        <v>4115</v>
       </c>
       <c r="H10">
         <v>6369</v>
@@ -1331,13 +1331,13 @@
         <v>9966992</v>
       </c>
       <c r="K10">
-        <v>39373</v>
+        <v>35997</v>
       </c>
       <c r="L10">
-        <v>5686117</v>
+        <v>5722119</v>
       </c>
       <c r="M10">
-        <v>39.25</v>
+        <v>41.29</v>
       </c>
       <c r="N10">
         <v>0.02</v>
@@ -1355,48 +1355,48 @@
         <v>24917.48</v>
       </c>
       <c r="S10">
-        <v>284306</v>
+        <v>286106</v>
       </c>
       <c r="T10">
-        <v>4565181</v>
+        <v>4530979</v>
       </c>
       <c r="U10">
-        <v>2282.59</v>
+        <v>2265.49</v>
       </c>
       <c r="V10">
-        <v>6847.77</v>
+        <v>6796.47</v>
       </c>
       <c r="W10">
-        <v>11412.95</v>
+        <v>11327.45</v>
       </c>
       <c r="X10">
         <v>23</v>
       </c>
       <c r="Y10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z10">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA10">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AB10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC10">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AD10">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AE10">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>105397</v>
+        <v>105562</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>104669</v>
+        <v>104774</v>
       </c>
       <c r="G11">
-        <v>728</v>
+        <v>788</v>
       </c>
       <c r="H11">
         <v>951</v>
@@ -1428,13 +1428,13 @@
         <v>1501406</v>
       </c>
       <c r="K11">
-        <v>9961</v>
+        <v>8157</v>
       </c>
       <c r="L11">
-        <v>825833</v>
+        <v>833990</v>
       </c>
       <c r="M11">
-        <v>48.49</v>
+        <v>52.48</v>
       </c>
       <c r="N11">
         <v>0.02</v>
@@ -1452,48 +1452,48 @@
         <v>3753.52</v>
       </c>
       <c r="S11">
-        <v>41292</v>
+        <v>41700</v>
       </c>
       <c r="T11">
-        <v>716865</v>
+        <v>709116</v>
       </c>
       <c r="U11">
-        <v>358.43</v>
+        <v>354.56</v>
       </c>
       <c r="V11">
-        <v>1075.3</v>
+        <v>1063.67</v>
       </c>
       <c r="W11">
-        <v>1792.16</v>
+        <v>1772.79</v>
       </c>
       <c r="X11">
         <v>24</v>
       </c>
       <c r="Y11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA11">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="AB11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC11">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AD11">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="AE11">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>13911</v>
+        <v>13916</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>13858</v>
+        <v>13862</v>
       </c>
       <c r="G12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12">
         <v>176</v>
@@ -1525,13 +1525,13 @@
         <v>296547</v>
       </c>
       <c r="K12">
-        <v>1042</v>
+        <v>1239</v>
       </c>
       <c r="L12">
-        <v>164780</v>
+        <v>166021</v>
       </c>
       <c r="M12">
-        <v>17.87</v>
+        <v>18.21</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1549,40 +1549,40 @@
         <v>741.37</v>
       </c>
       <c r="S12">
-        <v>8239</v>
+        <v>8301</v>
       </c>
       <c r="T12">
-        <v>140006</v>
+        <v>138827</v>
       </c>
       <c r="U12">
+        <v>69.41</v>
+      </c>
+      <c r="V12">
+        <v>208.24</v>
+      </c>
+      <c r="W12">
+        <v>347.07</v>
+      </c>
+      <c r="X12">
+        <v>23</v>
+      </c>
+      <c r="Y12">
         <v>70</v>
       </c>
-      <c r="V12">
-        <v>210.01</v>
-      </c>
-      <c r="W12">
-        <v>350.02</v>
-      </c>
-      <c r="X12">
-        <v>24</v>
-      </c>
-      <c r="Y12">
-        <v>71</v>
-      </c>
       <c r="Z12">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA12">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="AB12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC12">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AD12">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AE12">
         <v>0.17</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1598,19 +1598,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>73775</v>
+        <v>73797</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>73614</v>
+        <v>73626</v>
       </c>
       <c r="G13">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H13">
         <v>391</v>
@@ -1622,19 +1622,19 @@
         <v>533715</v>
       </c>
       <c r="K13">
-        <v>1345</v>
+        <v>829</v>
       </c>
       <c r="L13">
-        <v>265886</v>
+        <v>266715</v>
       </c>
       <c r="M13">
-        <v>30.17</v>
+        <v>32.04</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O13">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P13">
         <v>266.86</v>
@@ -1646,19 +1646,19 @@
         <v>1334.29</v>
       </c>
       <c r="S13">
-        <v>13294</v>
+        <v>13336</v>
       </c>
       <c r="T13">
-        <v>281123</v>
+        <v>280336</v>
       </c>
       <c r="U13">
-        <v>140.56</v>
+        <v>140.17</v>
       </c>
       <c r="V13">
-        <v>421.68</v>
+        <v>420.5</v>
       </c>
       <c r="W13">
-        <v>702.8099999999999</v>
+        <v>700.84</v>
       </c>
       <c r="X13">
         <v>26</v>
@@ -1667,7 +1667,7 @@
         <v>79</v>
       </c>
       <c r="Z13">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA13">
         <v>1.9</v>
@@ -1676,18 +1676,18 @@
         <v>95</v>
       </c>
       <c r="AC13">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AD13">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AE13">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1695,19 +1695,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>46361</v>
+        <v>46395</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>46134</v>
+        <v>46173</v>
       </c>
       <c r="G14">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H14">
         <v>517</v>
@@ -1719,19 +1719,19 @@
         <v>544745</v>
       </c>
       <c r="K14">
-        <v>3043</v>
+        <v>382</v>
       </c>
       <c r="L14">
-        <v>259614</v>
+        <v>260004</v>
       </c>
       <c r="M14">
-        <v>41.67</v>
+        <v>40.75</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P14">
         <v>272.37</v>
@@ -1743,19 +1743,19 @@
         <v>1361.86</v>
       </c>
       <c r="S14">
-        <v>12981</v>
+        <v>13000</v>
       </c>
       <c r="T14">
-        <v>298112</v>
+        <v>297741</v>
       </c>
       <c r="U14">
-        <v>149.06</v>
+        <v>148.87</v>
       </c>
       <c r="V14">
-        <v>447.17</v>
+        <v>446.61</v>
       </c>
       <c r="W14">
-        <v>745.28</v>
+        <v>744.35</v>
       </c>
       <c r="X14">
         <v>27</v>
@@ -1779,12 +1779,12 @@
         <v>457</v>
       </c>
       <c r="AE14">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1792,19 +1792,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>365598</v>
+        <v>365827</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>364338</v>
+        <v>364499</v>
       </c>
       <c r="G15">
-        <v>1260</v>
+        <v>1328</v>
       </c>
       <c r="H15">
         <v>5824</v>
@@ -1816,13 +1816,13 @@
         <v>4273210</v>
       </c>
       <c r="K15">
-        <v>24850</v>
+        <v>24343</v>
       </c>
       <c r="L15">
-        <v>2271516</v>
+        <v>2295996</v>
       </c>
       <c r="M15">
-        <v>29.49</v>
+        <v>31.08</v>
       </c>
       <c r="N15">
         <v>0.01</v>
@@ -1840,48 +1840,48 @@
         <v>10683.03</v>
       </c>
       <c r="S15">
-        <v>113576</v>
+        <v>114800</v>
       </c>
       <c r="T15">
-        <v>2115270</v>
+        <v>2092014</v>
       </c>
       <c r="U15">
-        <v>1057.63</v>
+        <v>1046.01</v>
       </c>
       <c r="V15">
-        <v>3172.9</v>
+        <v>3138.02</v>
       </c>
       <c r="W15">
-        <v>5288.18</v>
+        <v>5230.04</v>
       </c>
       <c r="X15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y15">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z15">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA15">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AB15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC15">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AD15">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AE15">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1889,19 +1889,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>255799</v>
+        <v>256031</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16">
-        <v>254747</v>
+        <v>254885</v>
       </c>
       <c r="G16">
-        <v>1052</v>
+        <v>1146</v>
       </c>
       <c r="H16">
         <v>2799</v>
@@ -1913,13 +1913,13 @@
         <v>3926931</v>
       </c>
       <c r="K16">
-        <v>20951</v>
+        <v>11174</v>
       </c>
       <c r="L16">
-        <v>2228170</v>
+        <v>2240043</v>
       </c>
       <c r="M16">
-        <v>26.79</v>
+        <v>29.18</v>
       </c>
       <c r="N16">
         <v>0.02</v>
@@ -1937,19 +1937,19 @@
         <v>9817.33</v>
       </c>
       <c r="S16">
-        <v>111409</v>
+        <v>112002</v>
       </c>
       <c r="T16">
-        <v>1810170</v>
+        <v>1798890</v>
       </c>
       <c r="U16">
-        <v>905.08</v>
+        <v>899.4400000000001</v>
       </c>
       <c r="V16">
-        <v>2715.26</v>
+        <v>2698.34</v>
       </c>
       <c r="W16">
-        <v>4525.42</v>
+        <v>4497.23</v>
       </c>
       <c r="X16">
         <v>23</v>
@@ -1961,24 +1961,24 @@
         <v>115</v>
       </c>
       <c r="AA16">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="AB16">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC16">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD16">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AE16">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1986,19 +1986,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>61721</v>
+        <v>62051</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>59497</v>
+        <v>59782</v>
       </c>
       <c r="G17">
-        <v>2224</v>
+        <v>2269</v>
       </c>
       <c r="H17">
         <v>1602</v>
@@ -2010,19 +2010,19 @@
         <v>1598225</v>
       </c>
       <c r="K17">
-        <v>8711</v>
+        <v>5122</v>
       </c>
       <c r="L17">
-        <v>849826</v>
+        <v>854952</v>
       </c>
       <c r="M17">
-        <v>139.15</v>
+        <v>141.97</v>
       </c>
       <c r="N17">
+        <v>0.06</v>
+      </c>
+      <c r="O17">
         <v>0.05</v>
-      </c>
-      <c r="O17">
-        <v>0.04</v>
       </c>
       <c r="P17">
         <v>799.11</v>
@@ -2034,19 +2034,19 @@
         <v>3995.56</v>
       </c>
       <c r="S17">
-        <v>42491</v>
+        <v>42748</v>
       </c>
       <c r="T17">
-        <v>790890</v>
+        <v>786021</v>
       </c>
       <c r="U17">
-        <v>395.44</v>
+        <v>393.01</v>
       </c>
       <c r="V17">
-        <v>1186.34</v>
+        <v>1179.03</v>
       </c>
       <c r="W17">
-        <v>1977.22</v>
+        <v>1965.05</v>
       </c>
       <c r="X17">
         <v>25</v>
@@ -2055,27 +2055,27 @@
         <v>74</v>
       </c>
       <c r="Z17">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA17">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="AB17">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC17">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AD17">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AE17">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2083,19 +2083,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>242059</v>
+        <v>242960</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F18">
-        <v>237902</v>
+        <v>238528</v>
       </c>
       <c r="G18">
-        <v>4157</v>
+        <v>4432</v>
       </c>
       <c r="H18">
         <v>2918</v>
@@ -2107,13 +2107,13 @@
         <v>4840876</v>
       </c>
       <c r="K18">
-        <v>20423</v>
+        <v>18030</v>
       </c>
       <c r="L18">
-        <v>2397784</v>
+        <v>2415824</v>
       </c>
       <c r="M18">
-        <v>85.87</v>
+        <v>91.55</v>
       </c>
       <c r="N18">
         <v>0.05</v>
@@ -2131,19 +2131,19 @@
         <v>12102.19</v>
       </c>
       <c r="S18">
-        <v>119889</v>
+        <v>120791</v>
       </c>
       <c r="T18">
-        <v>2562981</v>
+        <v>2545843</v>
       </c>
       <c r="U18">
-        <v>1281.49</v>
+        <v>1272.92</v>
       </c>
       <c r="V18">
-        <v>3844.47</v>
+        <v>3818.76</v>
       </c>
       <c r="W18">
-        <v>6407.45</v>
+        <v>6364.61</v>
       </c>
       <c r="X18">
         <v>26</v>
@@ -2152,27 +2152,27 @@
         <v>79</v>
       </c>
       <c r="Z18">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA18">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AB18">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC18">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AD18">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AE18">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2180,19 +2180,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>251332</v>
+        <v>251973</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F19">
-        <v>247617</v>
+        <v>248058</v>
       </c>
       <c r="G19">
-        <v>3715</v>
+        <v>3915</v>
       </c>
       <c r="H19">
         <v>5033</v>
@@ -2204,16 +2204,16 @@
         <v>3668333</v>
       </c>
       <c r="K19">
-        <v>27543</v>
+        <v>23607</v>
       </c>
       <c r="L19">
-        <v>1828803</v>
+        <v>1852423</v>
       </c>
       <c r="M19">
-        <v>101.27</v>
+        <v>106.72</v>
       </c>
       <c r="N19">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="O19">
         <v>0.03</v>
@@ -2228,48 +2228,48 @@
         <v>9170.83</v>
       </c>
       <c r="S19">
-        <v>91440</v>
+        <v>92621</v>
       </c>
       <c r="T19">
-        <v>1930970</v>
+        <v>1908531</v>
       </c>
       <c r="U19">
-        <v>965.48</v>
+        <v>954.27</v>
       </c>
       <c r="V19">
-        <v>2896.46</v>
+        <v>2862.8</v>
       </c>
       <c r="W19">
-        <v>4827.42</v>
+        <v>4771.33</v>
       </c>
       <c r="X19">
         <v>26</v>
       </c>
       <c r="Y19">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z19">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA19">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AB19">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC19">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AD19">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AE19">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2277,19 +2277,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>58233</v>
+        <v>58352</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F20">
-        <v>57499</v>
+        <v>57594</v>
       </c>
       <c r="G20">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="H20">
         <v>671</v>
@@ -2301,19 +2301,19 @@
         <v>865013</v>
       </c>
       <c r="K20">
-        <v>2907</v>
+        <v>2848</v>
       </c>
       <c r="L20">
-        <v>461233</v>
+        <v>464083</v>
       </c>
       <c r="M20">
-        <v>84.84999999999999</v>
+        <v>87.63</v>
       </c>
       <c r="N20">
         <v>0.02</v>
       </c>
       <c r="O20">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P20">
         <v>432.51</v>
@@ -2325,19 +2325,19 @@
         <v>2162.53</v>
       </c>
       <c r="S20">
-        <v>23062</v>
+        <v>23204</v>
       </c>
       <c r="T20">
-        <v>426842</v>
+        <v>424134</v>
       </c>
       <c r="U20">
-        <v>213.42</v>
+        <v>212.07</v>
       </c>
       <c r="V20">
-        <v>640.26</v>
+        <v>636.2</v>
       </c>
       <c r="W20">
-        <v>1067.11</v>
+        <v>1060.34</v>
       </c>
       <c r="X20">
         <v>25</v>
@@ -2349,24 +2349,24 @@
         <v>123</v>
       </c>
       <c r="AA20">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AB20">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC20">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AD20">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AE20">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2374,19 +2374,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>11761</v>
+        <v>11765</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>11732</v>
+        <v>11738</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21">
         <v>67</v>
@@ -2398,19 +2398,19 @@
         <v>123895</v>
       </c>
       <c r="K21">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="L21">
-        <v>61852</v>
+        <v>62408</v>
       </c>
       <c r="M21">
-        <v>23.41</v>
+        <v>21.79</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P21">
         <v>61.95</v>
@@ -2422,48 +2422,48 @@
         <v>309.74</v>
       </c>
       <c r="S21">
-        <v>3093</v>
+        <v>3120</v>
       </c>
       <c r="T21">
-        <v>65136</v>
+        <v>64607</v>
       </c>
       <c r="U21">
-        <v>32.57</v>
+        <v>32.3</v>
       </c>
       <c r="V21">
-        <v>97.7</v>
+        <v>96.91</v>
       </c>
       <c r="W21">
-        <v>162.84</v>
+        <v>161.52</v>
       </c>
       <c r="X21">
         <v>26</v>
       </c>
       <c r="Y21">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z21">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA21">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AB21">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC21">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AD21">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AE21">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>435954</v>
+        <v>436583</v>
       </c>
       <c r="D22">
         <v>14</v>
       </c>
       <c r="E22">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
-        <v>431333</v>
+        <v>431909</v>
       </c>
       <c r="G22">
-        <v>4621</v>
+        <v>4674</v>
       </c>
       <c r="H22">
         <v>6000</v>
@@ -2495,13 +2495,13 @@
         <v>4852453</v>
       </c>
       <c r="K22">
-        <v>23243</v>
+        <v>17722</v>
       </c>
       <c r="L22">
-        <v>2612758</v>
+        <v>2630563</v>
       </c>
       <c r="M22">
-        <v>95.23</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="N22">
         <v>0.01</v>
@@ -2519,19 +2519,19 @@
         <v>12131.13</v>
       </c>
       <c r="S22">
-        <v>130638</v>
+        <v>131528</v>
       </c>
       <c r="T22">
-        <v>2370333</v>
+        <v>2353418</v>
       </c>
       <c r="U22">
-        <v>1185.17</v>
+        <v>1176.71</v>
       </c>
       <c r="V22">
-        <v>3555.5</v>
+        <v>3530.13</v>
       </c>
       <c r="W22">
-        <v>5925.83</v>
+        <v>5883.54</v>
       </c>
       <c r="X22">
         <v>24</v>
@@ -2540,22 +2540,22 @@
         <v>73</v>
       </c>
       <c r="Z22">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA22">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="AB22">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC22">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AD22">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AE22">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/graph-data/tabella_semplice.xlsx
+++ b/data/graph-data/tabella_semplice.xlsx
@@ -558,7 +558,7 @@
         <v>8337</v>
       </c>
       <c r="L2">
-        <v>707498</v>
+        <v>707439</v>
       </c>
       <c r="M2">
         <v>40.61</v>
@@ -579,19 +579,19 @@
         <v>3213.14</v>
       </c>
       <c r="S2">
-        <v>35375</v>
+        <v>35372</v>
       </c>
       <c r="T2">
-        <v>613133</v>
+        <v>613189</v>
       </c>
       <c r="U2">
-        <v>306.57</v>
+        <v>306.59</v>
       </c>
       <c r="V2">
-        <v>919.7</v>
+        <v>919.78</v>
       </c>
       <c r="W2">
-        <v>1532.83</v>
+        <v>1532.97</v>
       </c>
       <c r="X2">
         <v>24</v>
@@ -652,10 +652,10 @@
         <v>547579</v>
       </c>
       <c r="K3">
-        <v>3613</v>
+        <v>3647</v>
       </c>
       <c r="L3">
-        <v>270930</v>
+        <v>270950</v>
       </c>
       <c r="M3">
         <v>33.97</v>
@@ -676,19 +676,19 @@
         <v>1368.95</v>
       </c>
       <c r="S3">
-        <v>13547</v>
+        <v>13548</v>
       </c>
       <c r="T3">
-        <v>290196</v>
+        <v>290177</v>
       </c>
       <c r="U3">
-        <v>145.1</v>
+        <v>145.09</v>
       </c>
       <c r="V3">
-        <v>435.29</v>
+        <v>435.27</v>
       </c>
       <c r="W3">
-        <v>725.49</v>
+        <v>725.4400000000001</v>
       </c>
       <c r="X3">
         <v>26</v>
@@ -749,10 +749,10 @@
         <v>1877728</v>
       </c>
       <c r="K4">
-        <v>10190</v>
+        <v>10194</v>
       </c>
       <c r="L4">
-        <v>942398</v>
+        <v>942335</v>
       </c>
       <c r="M4">
         <v>45.21</v>
@@ -773,19 +773,19 @@
         <v>4694.32</v>
       </c>
       <c r="S4">
-        <v>47120</v>
+        <v>47117</v>
       </c>
       <c r="T4">
-        <v>982450</v>
+        <v>982510</v>
       </c>
       <c r="U4">
-        <v>491.22</v>
+        <v>491.26</v>
       </c>
       <c r="V4">
-        <v>1473.68</v>
+        <v>1473.77</v>
       </c>
       <c r="W4">
-        <v>2456.12</v>
+        <v>2456.28</v>
       </c>
       <c r="X4">
         <v>26</v>
@@ -846,10 +846,10 @@
         <v>5679759</v>
       </c>
       <c r="K5">
-        <v>20181</v>
+        <v>20190</v>
       </c>
       <c r="L5">
-        <v>3213927</v>
+        <v>3213947</v>
       </c>
       <c r="M5">
         <v>38.79</v>
@@ -870,19 +870,19 @@
         <v>14199.4</v>
       </c>
       <c r="S5">
-        <v>160696</v>
+        <v>160697</v>
       </c>
       <c r="T5">
-        <v>2626528</v>
+        <v>2626509</v>
       </c>
       <c r="U5">
-        <v>1313.26</v>
+        <v>1313.25</v>
       </c>
       <c r="V5">
-        <v>3939.79</v>
+        <v>3939.76</v>
       </c>
       <c r="W5">
-        <v>6566.32</v>
+        <v>6566.27</v>
       </c>
       <c r="X5">
         <v>23</v>
@@ -943,10 +943,10 @@
         <v>4445549</v>
       </c>
       <c r="K6">
-        <v>24068</v>
+        <v>24085</v>
       </c>
       <c r="L6">
-        <v>2370157</v>
+        <v>2370181</v>
       </c>
       <c r="M6">
         <v>78.08</v>
@@ -967,19 +967,19 @@
         <v>11113.87</v>
       </c>
       <c r="S6">
-        <v>118508</v>
+        <v>118509</v>
       </c>
       <c r="T6">
-        <v>2193900</v>
+        <v>2193877</v>
       </c>
       <c r="U6">
-        <v>1096.95</v>
+        <v>1096.94</v>
       </c>
       <c r="V6">
-        <v>3290.85</v>
+        <v>3290.82</v>
       </c>
       <c r="W6">
-        <v>5484.75</v>
+        <v>5484.69</v>
       </c>
       <c r="X6">
         <v>25</v>
@@ -1040,10 +1040,10 @@
         <v>1198753</v>
       </c>
       <c r="K7">
-        <v>6022</v>
+        <v>6029</v>
       </c>
       <c r="L7">
-        <v>656117</v>
+        <v>656126</v>
       </c>
       <c r="M7">
         <v>41.88</v>
@@ -1067,16 +1067,16 @@
         <v>32806</v>
       </c>
       <c r="T7">
-        <v>575442</v>
+        <v>575433</v>
       </c>
       <c r="U7">
         <v>287.72</v>
       </c>
       <c r="V7">
-        <v>863.16</v>
+        <v>863.15</v>
       </c>
       <c r="W7">
-        <v>1438.61</v>
+        <v>1438.58</v>
       </c>
       <c r="X7">
         <v>24</v>
@@ -1140,7 +1140,7 @@
         <v>51214</v>
       </c>
       <c r="L8">
-        <v>3394809</v>
+        <v>3394806</v>
       </c>
       <c r="M8">
         <v>85.51000000000001</v>
@@ -1164,10 +1164,10 @@
         <v>169740</v>
       </c>
       <c r="T8">
-        <v>2495727</v>
+        <v>2495730</v>
       </c>
       <c r="U8">
-        <v>1247.86</v>
+        <v>1247.87</v>
       </c>
       <c r="V8">
         <v>3743.59</v>
@@ -1237,7 +1237,7 @@
         <v>6887</v>
       </c>
       <c r="L9">
-        <v>783932</v>
+        <v>783938</v>
       </c>
       <c r="M9">
         <v>55.04</v>
@@ -1261,16 +1261,16 @@
         <v>39197</v>
       </c>
       <c r="T9">
-        <v>765070</v>
+        <v>765064</v>
       </c>
       <c r="U9">
         <v>382.53</v>
       </c>
       <c r="V9">
-        <v>1147.61</v>
+        <v>1147.6</v>
       </c>
       <c r="W9">
-        <v>1912.67</v>
+        <v>1912.66</v>
       </c>
       <c r="X9">
         <v>25</v>
@@ -1331,10 +1331,10 @@
         <v>9966992</v>
       </c>
       <c r="K10">
-        <v>35997</v>
+        <v>35998</v>
       </c>
       <c r="L10">
-        <v>5722119</v>
+        <v>5722097</v>
       </c>
       <c r="M10">
         <v>41.29</v>
@@ -1355,19 +1355,19 @@
         <v>24917.48</v>
       </c>
       <c r="S10">
-        <v>286106</v>
+        <v>286105</v>
       </c>
       <c r="T10">
-        <v>4530979</v>
+        <v>4531000</v>
       </c>
       <c r="U10">
-        <v>2265.49</v>
+        <v>2265.5</v>
       </c>
       <c r="V10">
-        <v>6796.47</v>
+        <v>6796.5</v>
       </c>
       <c r="W10">
-        <v>11327.45</v>
+        <v>11327.5</v>
       </c>
       <c r="X10">
         <v>23</v>
@@ -1428,10 +1428,10 @@
         <v>1501406</v>
       </c>
       <c r="K11">
-        <v>8157</v>
+        <v>8163</v>
       </c>
       <c r="L11">
-        <v>833990</v>
+        <v>833974</v>
       </c>
       <c r="M11">
         <v>52.48</v>
@@ -1452,19 +1452,19 @@
         <v>3753.52</v>
       </c>
       <c r="S11">
-        <v>41700</v>
+        <v>41699</v>
       </c>
       <c r="T11">
-        <v>709116</v>
+        <v>709131</v>
       </c>
       <c r="U11">
-        <v>354.56</v>
+        <v>354.57</v>
       </c>
       <c r="V11">
-        <v>1063.67</v>
+        <v>1063.7</v>
       </c>
       <c r="W11">
-        <v>1772.79</v>
+        <v>1772.83</v>
       </c>
       <c r="X11">
         <v>24</v>
@@ -1625,7 +1625,7 @@
         <v>829</v>
       </c>
       <c r="L13">
-        <v>266715</v>
+        <v>266717</v>
       </c>
       <c r="M13">
         <v>32.04</v>
@@ -1649,7 +1649,7 @@
         <v>13336</v>
       </c>
       <c r="T13">
-        <v>280336</v>
+        <v>280334</v>
       </c>
       <c r="U13">
         <v>140.17</v>
@@ -1816,10 +1816,10 @@
         <v>4273210</v>
       </c>
       <c r="K15">
-        <v>24343</v>
+        <v>24357</v>
       </c>
       <c r="L15">
-        <v>2295996</v>
+        <v>2296035</v>
       </c>
       <c r="M15">
         <v>31.08</v>
@@ -1840,19 +1840,19 @@
         <v>10683.03</v>
       </c>
       <c r="S15">
-        <v>114800</v>
+        <v>114802</v>
       </c>
       <c r="T15">
-        <v>2092014</v>
+        <v>2091977</v>
       </c>
       <c r="U15">
-        <v>1046.01</v>
+        <v>1045.99</v>
       </c>
       <c r="V15">
-        <v>3138.02</v>
+        <v>3137.97</v>
       </c>
       <c r="W15">
-        <v>5230.04</v>
+        <v>5229.94</v>
       </c>
       <c r="X15">
         <v>24</v>
@@ -1913,10 +1913,10 @@
         <v>3926931</v>
       </c>
       <c r="K16">
-        <v>11174</v>
+        <v>11177</v>
       </c>
       <c r="L16">
-        <v>2240043</v>
+        <v>2240349</v>
       </c>
       <c r="M16">
         <v>29.18</v>
@@ -1937,19 +1937,19 @@
         <v>9817.33</v>
       </c>
       <c r="S16">
-        <v>112002</v>
+        <v>112017</v>
       </c>
       <c r="T16">
-        <v>1798890</v>
+        <v>1798599</v>
       </c>
       <c r="U16">
-        <v>899.4400000000001</v>
+        <v>899.3</v>
       </c>
       <c r="V16">
-        <v>2698.34</v>
+        <v>2697.9</v>
       </c>
       <c r="W16">
-        <v>4497.23</v>
+        <v>4496.5</v>
       </c>
       <c r="X16">
         <v>23</v>
@@ -2010,10 +2010,10 @@
         <v>1598225</v>
       </c>
       <c r="K17">
-        <v>5122</v>
+        <v>5123</v>
       </c>
       <c r="L17">
-        <v>854952</v>
+        <v>854953</v>
       </c>
       <c r="M17">
         <v>141.97</v>
@@ -2037,7 +2037,7 @@
         <v>42748</v>
       </c>
       <c r="T17">
-        <v>786021</v>
+        <v>786020</v>
       </c>
       <c r="U17">
         <v>393.01</v>
@@ -2107,10 +2107,10 @@
         <v>4840876</v>
       </c>
       <c r="K18">
-        <v>18030</v>
+        <v>18327</v>
       </c>
       <c r="L18">
-        <v>2415824</v>
+        <v>2416021</v>
       </c>
       <c r="M18">
         <v>91.55</v>
@@ -2131,19 +2131,19 @@
         <v>12102.19</v>
       </c>
       <c r="S18">
-        <v>120791</v>
+        <v>120801</v>
       </c>
       <c r="T18">
-        <v>2545843</v>
+        <v>2545656</v>
       </c>
       <c r="U18">
-        <v>1272.92</v>
+        <v>1272.83</v>
       </c>
       <c r="V18">
-        <v>3818.76</v>
+        <v>3818.48</v>
       </c>
       <c r="W18">
-        <v>6364.61</v>
+        <v>6364.14</v>
       </c>
       <c r="X18">
         <v>26</v>
@@ -2204,10 +2204,10 @@
         <v>3668333</v>
       </c>
       <c r="K19">
-        <v>23607</v>
+        <v>23661</v>
       </c>
       <c r="L19">
-        <v>1852423</v>
+        <v>1852623</v>
       </c>
       <c r="M19">
         <v>106.72</v>
@@ -2228,19 +2228,19 @@
         <v>9170.83</v>
       </c>
       <c r="S19">
-        <v>92621</v>
+        <v>92631</v>
       </c>
       <c r="T19">
-        <v>1908531</v>
+        <v>1908341</v>
       </c>
       <c r="U19">
-        <v>954.27</v>
+        <v>954.17</v>
       </c>
       <c r="V19">
-        <v>2862.8</v>
+        <v>2862.51</v>
       </c>
       <c r="W19">
-        <v>4771.33</v>
+        <v>4770.85</v>
       </c>
       <c r="X19">
         <v>26</v>
@@ -2301,10 +2301,10 @@
         <v>865013</v>
       </c>
       <c r="K20">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="L20">
-        <v>464083</v>
+        <v>464101</v>
       </c>
       <c r="M20">
         <v>87.63</v>
@@ -2325,19 +2325,19 @@
         <v>2162.53</v>
       </c>
       <c r="S20">
-        <v>23204</v>
+        <v>23205</v>
       </c>
       <c r="T20">
-        <v>424134</v>
+        <v>424117</v>
       </c>
       <c r="U20">
-        <v>212.07</v>
+        <v>212.06</v>
       </c>
       <c r="V20">
-        <v>636.2</v>
+        <v>636.1799999999999</v>
       </c>
       <c r="W20">
-        <v>1060.34</v>
+        <v>1060.29</v>
       </c>
       <c r="X20">
         <v>25</v>
@@ -2495,10 +2495,10 @@
         <v>4852453</v>
       </c>
       <c r="K22">
-        <v>17722</v>
+        <v>17910</v>
       </c>
       <c r="L22">
-        <v>2630563</v>
+        <v>2630769</v>
       </c>
       <c r="M22">
         <v>96.31999999999999</v>
@@ -2519,19 +2519,19 @@
         <v>12131.13</v>
       </c>
       <c r="S22">
-        <v>131528</v>
+        <v>131538</v>
       </c>
       <c r="T22">
-        <v>2353418</v>
+        <v>2353222</v>
       </c>
       <c r="U22">
-        <v>1176.71</v>
+        <v>1176.61</v>
       </c>
       <c r="V22">
-        <v>3530.13</v>
+        <v>3529.83</v>
       </c>
       <c r="W22">
-        <v>5883.54</v>
+        <v>5883.05</v>
       </c>
       <c r="X22">
         <v>24</v>
@@ -2552,7 +2552,7 @@
         <v>309</v>
       </c>
       <c r="AD22">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AE22">
         <v>0.9399999999999999</v>
